--- a/game_template/model/data/floor builder Level 2.xlsx
+++ b/game_template/model/data/floor builder Level 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1963,34 +1963,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -2107,6 +2079,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6626,12 +6626,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6644,7 +6644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -8359,12 +8359,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10092,12 +10092,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11825,12 +11825,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13980,12 +13980,12 @@
     <sortCondition ref="B2:B65"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15732,7 +15732,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15845,13 +15845,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>6</v>
@@ -15887,11 +15887,11 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>!! !!:  : :     w:!!</v>
+        <v>!! !!:  ( )     w:!!</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'!! !!:  : :     w:!!',</v>
+        <v>'!! !!:  ( )     w:!!',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -15944,7 +15944,7 @@
         <v>6</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>2</v>
@@ -15962,11 +15962,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>!           T   :::!</v>
+        <v>!           T   (::!</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'!           T   :::!',</v>
+        <v>'!           T   (::!',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -16022,7 +16022,7 @@
         <v>6</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>2</v>
@@ -16037,11 +16037,11 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> T      T        ::!</v>
+        <v xml:space="preserve"> T      T        (:!</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>' T      T        ::!',</v>
+        <v>' T      T        (:!',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -16100,7 +16100,7 @@
         <v>6</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T5" s="14" t="s">
         <v>31</v>
@@ -16112,11 +16112,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                T :w</v>
+        <v xml:space="preserve">                T (w</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                T :w',</v>
+        <v>'                T (w',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -16400,7 +16400,7 @@
         <v>6</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T9" s="14" t="s">
         <v>2</v>
@@ -16412,11 +16412,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>::       :  T      :</v>
+        <v>::       :  T     /:</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'::       :  T      :',</v>
+        <v>'::       :  T     /:',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -16424,7 +16424,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -16487,11 +16487,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:       /:\      :::</v>
+        <v>:)      /:\      :::</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':       /:\      :::',</v>
+        <v>':)      /:\      :::',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -16547,10 +16547,10 @@
         <v>6</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="T11" s="14" t="s">
         <v>23</v>
@@ -16562,11 +16562,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>!   T   :l:        E</v>
+        <v>!   T   :l:      ``E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'!   T   :l:        E',</v>
+        <v>'!   T   :l:      ``E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -16598,7 +16598,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>2</v>
@@ -16637,11 +16637,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>!      ::=::     :::</v>
+        <v>!      ::`::     :::</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'!      ::=::     :::',</v>
+        <v>'!      ::`::     :::',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -16667,19 +16667,19 @@
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>6</v>
@@ -16712,11 +16712,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        : :    T  !:</v>
+        <v xml:space="preserve">       (```)   T  !:</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'        : :    T  !:',</v>
+        <v>'       (```)   T  !:',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>6</v>
@@ -17114,7 +17114,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>42</v>
@@ -17123,7 +17123,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>2</v>
@@ -17141,13 +17141,13 @@
         <v>6</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="14" t="s">
         <v>2</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>6</v>
@@ -17162,11 +17162,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>::     !: :     :  !</v>
+        <v>:\    !!:`:    /:\ !</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'::     !: :     :  !',</v>
+        <v>':\    !!:`:    /:\ !',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -19190,12 +19190,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20923,12 +20923,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22656,17 +22656,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24392,12 +24392,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26125,12 +26125,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26143,7 +26143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -26250,10 +26250,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>8</v>
@@ -26265,10 +26265,10 @@
         <v>8</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>2</v>
@@ -26298,11 +26298,11 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:1   :  ?:?  :    j:</v>
+        <v>:1   :``?:?``:    j:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':1   :  ?:?  :    j:',</v>
+        <v>':1   :``?:?``:    j:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -26325,7 +26325,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>6</v>
@@ -26343,7 +26343,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>7</v>
@@ -26373,11 +26373,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:    D   :   D     :</v>
+        <v>:    D`  :  `D     :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':    D   :   D     :',</v>
+        <v>':    D`  :  `D     :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -26400,7 +26400,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>6</v>
@@ -26418,7 +26418,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N4" s="14" t="s">
         <v>2</v>
@@ -26448,11 +26448,11 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:    :   :   : 1   :</v>
+        <v>:    :`  :  `: 1   :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':    :   :   : 1   :',</v>
+        <v>':    :`  :  `: 1   :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -26475,7 +26475,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>6</v>
@@ -26493,7 +26493,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>2</v>
@@ -26523,11 +26523,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:    :  B:B  :     :</v>
+        <v>:    :` B:B `:     :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':    :  B:B  :     :',</v>
+        <v>':    :` B:B `:     :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26550,7 +26550,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>6</v>
@@ -26568,7 +26568,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>2</v>
@@ -26598,11 +26598,11 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:    :   :   :     :</v>
+        <v>:    :`  :  `:     :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':    :   :   :     :',</v>
+        <v>':    :`  :  `:     :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -26625,7 +26625,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>6</v>
@@ -26643,7 +26643,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>2</v>
@@ -26673,11 +26673,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:!   :   :   :::::;:</v>
+        <v>:!   :`  :  `:::::;:</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':!   :   :   :::::;:',</v>
+        <v>':!   :`  :  `:::::;:',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -26700,7 +26700,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>6</v>
@@ -26718,7 +26718,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>2</v>
@@ -26748,11 +26748,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:!   :  /:\  :     :</v>
+        <v>:!   :` /:\ `:     :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':!   :  /:\  :     :',</v>
+        <v>':!   :` /:\ `:     :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -26775,7 +26775,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>6</v>
@@ -26793,7 +26793,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>2</v>
@@ -26823,11 +26823,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:!!  :  :::  :     :</v>
+        <v>:!!  :` ::: `:     :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':!!  :  :::  :     :',</v>
+        <v>':!!  :` ::: `:     :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -26850,7 +26850,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>6</v>
@@ -26868,7 +26868,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>7</v>
@@ -26898,11 +26898,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>::::::  :+:  D     :</v>
+        <v>::::::` :+: `D     :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'::::::  :+:  D     :',</v>
+        <v>'::::::` :+: `D     :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -26925,7 +26925,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>6</v>
@@ -26934,7 +26934,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>13</v>
@@ -26943,7 +26943,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N11" s="14" t="s">
         <v>2</v>
@@ -26973,11 +26973,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:    :  ( )  :  2  :</v>
+        <v>:    :` (`) `:  2  :</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':    :  ( )  :  2  :',</v>
+        <v>':    :` (`) `:  2  :',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -27000,7 +27000,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>6</v>
@@ -27018,7 +27018,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>2</v>
@@ -27048,11 +27048,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:    D       :     :</v>
+        <v>:    D`     `:     :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':    D       :     :',</v>
+        <v>':    D`     `:     :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -27075,7 +27075,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>6</v>
@@ -27093,7 +27093,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N13" s="14" t="s">
         <v>2</v>
@@ -27123,11 +27123,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:    :       :     :</v>
+        <v>:    :`     `:     :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':    :       :     :',</v>
+        <v>':    :`     `:     :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -27150,25 +27150,25 @@
         <v>2</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>2</v>
@@ -27198,11 +27198,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>: 2  :   B   :!   j:</v>
+        <v>: 2  :```B```:!   j:</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>': 2  :   B   :!   j:',</v>
+        <v>': 2  :```B```:!   j:',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27483,10 +27483,10 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>2</v>
@@ -27498,11 +27498,11 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>:       !:!  2     :</v>
+        <v>:       !:!  2   ``:</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>':       !:!  2     :',</v>
+        <v>':       !:!  2   ``:',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -27558,7 +27558,7 @@
         <v>6</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="S19" s="14" t="s">
         <v>16</v>
@@ -27573,11 +27573,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:1    !!!:!!      -:</v>
+        <v>:1    !!!:!!     `-:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':1    !!!:!!      -:',</v>
+        <v>':1    !!!:!!     `-:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -27858,12 +27858,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 2.xlsx
+++ b/game_template/model/data/floor builder Level 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="Dungeon" sheetId="60" r:id="rId9"/>
     <sheet name="Oubliette" sheetId="61" r:id="rId10"/>
     <sheet name="Throne" sheetId="43" r:id="rId11"/>
-    <sheet name="Blank (2)" sheetId="62" r:id="rId12"/>
-    <sheet name="End" sheetId="57" r:id="rId13"/>
-    <sheet name="Tiles" sheetId="56" r:id="rId14"/>
+    <sheet name="End" sheetId="57" r:id="rId12"/>
+    <sheet name="Tiles" sheetId="56" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Tiles!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Tiles!$C$1:$C$64</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5098" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="227">
   <si>
     <t>width</t>
   </si>
@@ -1959,7 +1958,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -1971,20 +1970,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4893,12 +4878,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4912,7 +4897,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5099,19 +5084,19 @@
         <v>6</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>31</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>6</v>
@@ -5141,11 +5126,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>w::      w w    j::w</v>
+        <v>w::     (w`w)   j::w</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'w::      w w    j::w',</v>
+        <v>'w::     (w`w)   j::w',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -6626,12 +6611,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6645,7 +6630,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,7 +6967,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>6</v>
@@ -7024,11 +7009,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:                :ww</v>
+        <v>:       `        :ww</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':                :ww',</v>
+        <v>':       `        :ww',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -7057,7 +7042,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>6</v>
@@ -7099,11 +7084,11 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:j:              :ww</v>
+        <v>:j:     `        :ww</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':j:              :ww',</v>
+        <v>':j:     `        :ww',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -7132,7 +7117,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>12</v>
@@ -7174,11 +7159,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>::)   /\ /\     /:ww</v>
+        <v>::)   /\`/\     /:ww</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'::)   /\ /\     /:ww',</v>
+        <v>'::)   /\`/\     /:ww',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -7261,7 +7246,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -7282,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>6</v>
@@ -7297,7 +7282,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>133</v>
@@ -7324,11 +7309,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:             ```::w</v>
+        <v>:`      `    ¬```::w</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':             ```::w',</v>
+        <v>':`      `    ¬```::w',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -7336,10 +7321,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>6</v>
@@ -7357,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>6</v>
@@ -7372,16 +7357,16 @@
         <v>6</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>46</v>
@@ -7399,11 +7384,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>W             ```M:w</v>
+        <v>W``     `    ¬¬¬¬M:w</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'W             ```M:w',</v>
+        <v>'W``     `    ¬¬¬¬M:w',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -7411,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>6</v>
@@ -7432,7 +7417,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>6</v>
@@ -7447,7 +7432,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>133</v>
@@ -7474,11 +7459,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:             ```::w</v>
+        <v>:`      `    ¬```::w</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':             ```::w',</v>
+        <v>':`      `    ¬```::w',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -7582,7 +7567,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>14</v>
@@ -7624,11 +7609,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>::\   () ()     (:ww</v>
+        <v>::\   ()`()     (:ww</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'::\   () ()     (:ww',</v>
+        <v>'::\   ()`()     (:ww',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -7657,7 +7642,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>6</v>
@@ -7699,11 +7684,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>:j:              :ww</v>
+        <v>:j:     `        :ww</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>':j:              :ww',</v>
+        <v>':j:     `        :ww',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -7732,7 +7717,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>6</v>
@@ -7774,11 +7759,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:                :ww</v>
+        <v>:       `        :ww</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':                :ww',</v>
+        <v>':       `        :ww',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7807,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>6</v>
@@ -7849,11 +7834,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:                :ww</v>
+        <v>:       `        :ww</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':                :ww',</v>
+        <v>':       `        :ww',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -8359,12 +8344,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8378,7 +8363,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:T20"/>
+      <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8390,65 +8375,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -8457,19 +8442,19 @@
       <c r="Y1" s="5"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v xml:space="preserve">                    </v>
+        <v>:::::::::N::::::::::</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>':::::::::N::::::::::',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
+      <c r="A2" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>6</v>
@@ -8490,13 +8475,13 @@
         <v>6</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>6</v>
@@ -8520,10 +8505,10 @@
         <v>6</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -8532,16 +8517,16 @@
       <c r="Y2" s="9"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">                    </v>
+        <v>:)      (`)       (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'                    ',</v>
+        <v>':)      (`)       (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
+      <c r="A3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -8597,8 +8582,8 @@
       <c r="S3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="14" t="s">
-        <v>6</v>
+      <c r="T3" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -8607,16 +8592,16 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:                  :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':                  :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
+      <c r="A4" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -8672,8 +8657,8 @@
       <c r="S4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="14" t="s">
-        <v>6</v>
+      <c r="T4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -8682,16 +8667,16 @@
       <c r="Y4" s="9"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:                  :</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':                  :',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
+      <c r="A5" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -8712,19 +8697,19 @@
         <v>6</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>6</v>
@@ -8747,8 +8732,8 @@
       <c r="S5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="14" t="s">
-        <v>6</v>
+      <c r="T5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -8757,16 +8742,16 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:      /:::\       :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':      /:::\       :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>6</v>
+      <c r="A6" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -8781,34 +8766,34 @@
         <v>6</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>6</v>
@@ -8822,8 +8807,8 @@
       <c r="S6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="14" t="s">
-        <v>6</v>
+      <c r="T6" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -8832,16 +8817,16 @@
       <c r="Y6" s="9"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:    /:)```(::\    :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':    /:)```(::\    :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
+      <c r="A7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -8850,13 +8835,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>6</v>
@@ -8865,13 +8850,13 @@
         <v>6</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>6</v>
@@ -8883,13 +8868,13 @@
         <v>6</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>6</v>
@@ -8897,8 +8882,8 @@
       <c r="S7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="14" t="s">
-        <v>6</v>
+      <c r="T7" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -8907,16 +8892,16 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  /:)  `L`   (:\  :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  /:)  `L`   (:\  :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
+      <c r="A8" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -8925,10 +8910,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>6</v>
@@ -8940,13 +8925,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>6</v>
@@ -8961,10 +8946,10 @@
         <v>6</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>6</v>
@@ -8972,8 +8957,8 @@
       <c r="S8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="14" t="s">
-        <v>6</v>
+      <c r="T8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -8982,16 +8967,16 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  :B   ```    B:  :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  :B   ```    B:  :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
+      <c r="A9" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -9000,7 +8985,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>6</v>
@@ -9015,13 +9000,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>6</v>
@@ -9039,7 +9024,7 @@
         <v>6</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R9" s="14" t="s">
         <v>6</v>
@@ -9047,8 +9032,8 @@
       <c r="S9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>6</v>
+      <c r="T9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -9057,16 +9042,16 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  :    `¬`     :  :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  :    `¬`     :  :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
+      <c r="A10" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -9075,7 +9060,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>6</v>
@@ -9090,13 +9075,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>6</v>
@@ -9114,7 +9099,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>6</v>
@@ -9122,8 +9107,8 @@
       <c r="S10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="14" t="s">
-        <v>6</v>
+      <c r="T10" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -9132,16 +9117,16 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  :    `¬`     :  :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  :    `¬`     :  :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
+      <c r="A11" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -9150,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>6</v>
@@ -9165,13 +9150,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>6</v>
@@ -9189,7 +9174,7 @@
         <v>6</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R11" s="14" t="s">
         <v>6</v>
@@ -9197,8 +9182,8 @@
       <c r="S11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="14" t="s">
-        <v>6</v>
+      <c r="T11" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -9207,16 +9192,16 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  :    `¬`     :  :</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  :    `¬`     :  :',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>6</v>
+      <c r="A12" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -9225,10 +9210,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>6</v>
@@ -9240,13 +9225,13 @@
         <v>6</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -9261,10 +9246,10 @@
         <v>6</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>6</v>
@@ -9272,8 +9257,8 @@
       <c r="S12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="14" t="s">
-        <v>6</v>
+      <c r="T12" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -9282,16 +9267,16 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:  (:   `¬`    :)  :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':  (:   `¬`    :)  :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
+      <c r="A13" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -9303,10 +9288,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>6</v>
@@ -9315,13 +9300,13 @@
         <v>6</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>6</v>
@@ -9333,10 +9318,10 @@
         <v>6</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>6</v>
@@ -9347,8 +9332,8 @@
       <c r="S13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>6</v>
+      <c r="T13" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -9357,16 +9342,16 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:   (:  `¬`   :)   :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':   (:  `¬`   :)   :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>6</v>
+      <c r="A14" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -9381,10 +9366,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>6</v>
@@ -9393,7 +9378,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>6</v>
@@ -9405,10 +9390,10 @@
         <v>6</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>6</v>
@@ -9422,8 +9407,8 @@
       <c r="S14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="14" t="s">
-        <v>6</v>
+      <c r="T14" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -9432,16 +9417,16 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:    (:  ¬   :)    :</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':    (:  ¬   :)    :',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>6</v>
+      <c r="A15" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -9459,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>6</v>
@@ -9468,7 +9453,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>6</v>
@@ -9480,7 +9465,7 @@
         <v>6</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O15" s="14" t="s">
         <v>6</v>
@@ -9497,8 +9482,8 @@
       <c r="S15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="14" t="s">
-        <v>6</v>
+      <c r="T15" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -9507,16 +9492,16 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:     :  ¬   :     :</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':     :  ¬   :     :',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>6</v>
+      <c r="A16" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -9534,19 +9519,19 @@
         <v>6</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>6</v>
@@ -9555,7 +9540,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O16" s="14" t="s">
         <v>6</v>
@@ -9570,10 +9555,10 @@
         <v>6</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -9582,16 +9567,16 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:     B ¬¬¬  B    w:</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':     B ¬¬¬  B    w:',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>6</v>
+      <c r="A17" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -9645,10 +9630,10 @@
         <v>6</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -9657,19 +9642,19 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:                 w:</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':                 w:',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>6</v>
+      <c r="A18" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>6</v>
@@ -9717,13 +9702,13 @@
         <v>6</v>
       </c>
       <c r="R18" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="S18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -9732,25 +9717,25 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:w               ww:</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':w               ww:',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>6</v>
+      <c r="A19" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>6</v>
@@ -9789,16 +9774,16 @@
         <v>6</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -9807,73 +9792,73 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>:www            www:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>':www            www:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>6</v>
+      <c r="A20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -9882,11 +9867,11 @@
       <c r="Y20" s="9"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v>::::::::::::::::::::</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'::::::::::::::::::::',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -10092,1739 +10077,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>":"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="5"/>
-      <c r="AA1" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>:::::::::N::::::::::</v>
-      </c>
-      <c r="AB1" t="str">
-        <f>"'"&amp;AA1&amp;"',"</f>
-        <v>':::::::::N::::::::::',</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="9"/>
-      <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:                  :</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="9"/>
-      <c r="AA3" t="str">
-        <f t="shared" si="0"/>
-        <v>:                  :</v>
-      </c>
-      <c r="AB3" t="str">
-        <f t="shared" si="1"/>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="9"/>
-      <c r="AA4" t="str">
-        <f t="shared" si="0"/>
-        <v>:                  :</v>
-      </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="1"/>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="9"/>
-      <c r="AA5" t="str">
-        <f t="shared" si="0"/>
-        <v>:      /:::\       :</v>
-      </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="1"/>
-        <v>':      /:::\       :',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v>:    /::   :::\    :</v>
-      </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="1"/>
-        <v>':    /::   :::\    :',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="9"/>
-      <c r="AA7" t="str">
-        <f t="shared" si="0"/>
-        <v>:  /::   L    ::\  :</v>
-      </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="1"/>
-        <v>':  /::   L    ::\  :',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="9"/>
-      <c r="AA8" t="str">
-        <f t="shared" si="0"/>
-        <v>:  :    ```     :  :</v>
-      </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="1"/>
-        <v>':  :    ```     :  :',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="9"/>
-      <c r="AA9" t="str">
-        <f t="shared" si="0"/>
-        <v>:  :    ```     :  :</v>
-      </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="1"/>
-        <v>':  :    ```     :  :',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="9"/>
-      <c r="AA10" t="str">
-        <f t="shared" si="0"/>
-        <v>:  :    ```     :  :</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="1"/>
-        <v>':  :    ```     :  :',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="9"/>
-      <c r="AA11" t="str">
-        <f t="shared" si="0"/>
-        <v>:  :    ```     :  :</v>
-      </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="1"/>
-        <v>':  :    ```     :  :',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="9"/>
-      <c r="AA12" t="str">
-        <f t="shared" si="0"/>
-        <v>:  ::   ```    ::  :</v>
-      </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="1"/>
-        <v>':  ::   ```    ::  :',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="9"/>
-      <c r="AA13" t="str">
-        <f t="shared" si="0"/>
-        <v>:   ::  ```   ::   :</v>
-      </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="1"/>
-        <v>':   ::  ```   ::   :',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="9"/>
-      <c r="AA14" t="str">
-        <f t="shared" si="0"/>
-        <v>:    ::      ::    :</v>
-      </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="1"/>
-        <v>':    ::      ::    :',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="9"/>
-      <c r="AA15" t="str">
-        <f t="shared" si="0"/>
-        <v>:     :      :     :</v>
-      </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="1"/>
-        <v>':     :      :     :',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="9"/>
-      <c r="AA16" t="str">
-        <f t="shared" si="0"/>
-        <v>:     :      :     :</v>
-      </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="1"/>
-        <v>':     :      :     :',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="9"/>
-      <c r="AA17" t="str">
-        <f t="shared" si="0"/>
-        <v>:                  :</v>
-      </c>
-      <c r="AB17" t="str">
-        <f t="shared" si="1"/>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="9"/>
-      <c r="AA18" t="str">
-        <f t="shared" si="0"/>
-        <v>:                  :</v>
-      </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="1"/>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="9"/>
-      <c r="AA19" t="str">
-        <f t="shared" si="0"/>
-        <v>:                  :</v>
-      </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="1"/>
-        <v>':                  :',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="9"/>
-      <c r="AA20" t="str">
-        <f t="shared" si="0"/>
-        <v>::::::::::::::::::::</v>
-      </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="1"/>
-        <v>'::::::::::::::::::::',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="9"/>
-      <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB21" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="9"/>
-      <c r="AA22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="9"/>
-      <c r="AA23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="9"/>
-      <c r="AA24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="13"/>
-      <c r="AA25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:Y25">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
@@ -11839,7 +10091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
@@ -15713,12 +13965,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15731,7 +13983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -15932,7 +14184,7 @@
         <v>6</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>6</v>
@@ -15962,11 +14214,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>!           T   (::!</v>
+        <v>!           z   (::!</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'!           T   (::!',</v>
+        <v>'!           z   (::!',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -16094,7 +14346,7 @@
         <v>6</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R5" s="14" t="s">
         <v>6</v>
@@ -16112,11 +14364,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                T (w</v>
+        <v xml:space="preserve">                z (w</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                T (w',</v>
+        <v>'                z (w',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -16199,10 +14451,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>6</v>
@@ -16238,7 +14490,7 @@
         <v>6</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>6</v>
@@ -16262,11 +14514,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>: T      T         !</v>
+        <v>:\       T    z    !</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>': T      T         !',</v>
+        <v>':\       T    z    !',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -16364,7 +14616,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>6</v>
@@ -16412,11 +14664,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>::       :  T     /:</v>
+        <v>::    z  :  T     /:</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'::       :  T     /:',</v>
+        <v>'::    z  :  T     /:',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -16880,13 +15132,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E16" s="14">
         <v>8</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>6</v>
@@ -16937,11 +15189,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">   B8B            ::</v>
+        <v xml:space="preserve">   z8z            ::</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'   B8B            ::',</v>
+        <v>'   z8z            ::',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -16994,10 +15246,10 @@
         <v>6</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>6</v>
@@ -17012,11 +15264,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    8   T    T   T !</v>
+        <v xml:space="preserve">    8   T    T  z  !</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'    8   T    T   T !',</v>
+        <v>'    8   T    T  z  !',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -17447,22 +15699,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19190,12 +17442,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19396,7 +17648,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>6</v>
@@ -19438,11 +17690,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>!  w    w  www   ww!</v>
+        <v>!  w    z  www   ww!</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'!  w    w  www   ww!',</v>
+        <v>'!  w    z  www   ww!',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -19720,7 +17972,7 @@
         <v>6</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>6</v>
@@ -19738,11 +17990,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>ww      www        w</v>
+        <v>ww      www     z  w</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'ww      www        w',</v>
+        <v>'ww      www     z  w',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -19786,7 +18038,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>6</v>
@@ -19813,11 +18065,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ww      ww         </v>
+        <v xml:space="preserve"> ww      ww  z      </v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>' ww      ww         ',</v>
+        <v>' ww      ww  z      ',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -19918,7 +18170,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>6</v>
@@ -19963,11 +18215,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>W        w         E</v>
+        <v>W      z w         E</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'W        w         E',</v>
+        <v>'W      z w         E',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -20101,7 +18353,7 @@
         <v>6</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="T12" s="14" t="s">
         <v>6</v>
@@ -20113,11 +18365,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    w        www  w </v>
+        <v xml:space="preserve">    w        www  z </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'    w        www  w ',</v>
+        <v>'    w        www  z ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -20608,7 +18860,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>6</v>
@@ -20638,11 +18890,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>ww  !w!w!!       jww</v>
+        <v>ww  !w!w!!  z    jww</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'ww  !w!w!!       jww',</v>
+        <v>'ww  !w!w!!  z    jww',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -20923,12 +19175,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21156,7 +19408,7 @@
         <v>6</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>31</v>
@@ -21171,11 +19423,11 @@
       <c r="Y3" s="9"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>w!!  ww    !!     ww</v>
+        <v>w!!  ww    !!    www</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'w!!  ww    !!     ww',</v>
+        <v>'w!!  ww    !!    www',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -21309,7 +19561,7 @@
         <v>6</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>31</v>
@@ -21321,11 +19573,11 @@
       <c r="Y5" s="9"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>ww           !     w</v>
+        <v>ww           !    ww</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'ww           !     w',</v>
+        <v>'ww           !    ww',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -21432,7 +19684,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>6</v>
@@ -21459,7 +19711,7 @@
         <v>6</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>2</v>
@@ -21471,11 +19723,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>www                :</v>
+        <v>www      /        w:</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'www                :',</v>
+        <v>'www      /        w:',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -21576,7 +19828,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>2</v>
@@ -21609,7 +19861,7 @@
         <v>6</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>23</v>
@@ -21621,11 +19873,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>w!     w::!w       E</v>
+        <v>w!     /::!w      `E</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'w!     w::!w       E',</v>
+        <v>'w!     /::!w      `E',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -21705,7 +19957,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -21771,16 +20023,16 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>w      wwwww   !!!!:</v>
+        <v>!      wwwww   !!!!:</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'w      wwwww   !!!!:',</v>
+        <v>'!      wwwww   !!!!:',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -21846,16 +20098,16 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>w         w   !!  !:</v>
+        <v>!         w   !!  !:</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'w         w   !!  !:',</v>
+        <v>'!         w   !!  !:',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -21867,7 +20119,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>6</v>
@@ -21921,11 +20173,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>w                 !w</v>
+        <v>!   \             !w</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'w                 !w',</v>
+        <v>'!   \             !w',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -22020,7 +20272,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>6</v>
@@ -22071,11 +20323,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>w   :         ww   w</v>
+        <v>w   :\        ww   w</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'w   :         ww   w',</v>
+        <v>'w   :\        ww   w',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -22092,7 +20344,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>2</v>
@@ -22146,11 +20398,11 @@
       <c r="Y16" s="9"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>w   :::w      w:   w</v>
+        <v>w   (::w      w:   w</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'w   :::w      w:   w',</v>
+        <v>'w   (::w      w:   w',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -22332,10 +20584,10 @@
         <v>2</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>31</v>
@@ -22371,11 +20623,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>ww!!!www:  wwww:!! w</v>
+        <v>ww!!!www:`:wwww:!! w</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'ww!!!www:  wwww:!! w',</v>
+        <v>'ww!!!www:`:wwww:!! w',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -22410,7 +20662,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>31</v>
@@ -22446,11 +20698,11 @@
       <c r="Y20" s="9"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>wwwwwwww:Swwwww:wwww</v>
+        <v>wwwwwwww:S:wwww:wwww</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'wwwwwwww:Swwwww:wwww',</v>
+        <v>'wwwwwwww:S:wwww:wwww',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -22656,17 +20908,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24392,12 +22644,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26125,12 +24377,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26143,8 +24395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26784,7 +25036,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>2</v>
@@ -26823,11 +25075,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:!!  :` ::: `:     :</v>
+        <v>:!!  :` :+: `:     :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':!!  :` ::: `:     :',</v>
+        <v>':!!  :` :+: `:     :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -26859,7 +25111,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>2</v>
@@ -26898,11 +25150,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>::::::` :+: `D     :</v>
+        <v>::::::` :`: `D     :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'::::::` :+: `D     :',</v>
+        <v>'::::::` :`: `D     :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -27099,7 +25351,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>6</v>
@@ -27123,11 +25375,11 @@
       <c r="Y13" s="9"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:    :`     `:     :</v>
+        <v>:    :`     `:!    :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':    :`     `:     :',</v>
+        <v>':    :`     `:!    :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -27177,7 +25429,7 @@
         <v>42</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>6</v>
@@ -27198,11 +25450,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>: 2  :```B```:!   j:</v>
+        <v>: 2  :```B```:!!  j:</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>': 2  :```B```:!   j:',</v>
+        <v>': 2  :```B```:!!  j:',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -27858,12 +26110,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 2.xlsx
+++ b/game_template/model/data/floor builder Level 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1958,7 +1958,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4878,12 +4892,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6611,12 +6625,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8344,12 +8358,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8362,7 +8376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -8988,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>6</v>
@@ -9021,7 +9035,7 @@
         <v>6</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="14" t="s">
         <v>2</v>
@@ -9042,11 +9056,11 @@
       <c r="Y9" s="9"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:  :    `¬`     :  :</v>
+        <v>:  :)   `¬`    (:  :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':  :    `¬`     :  :',</v>
+        <v>':  :)   `¬`    (:  :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -9603,7 +9617,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>6</v>
@@ -9642,11 +9656,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:                 w:</v>
+        <v>:        ¬        w:</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':                 w:',</v>
+        <v>':        ¬        w:',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -10077,12 +10091,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12232,12 +12246,12 @@
     <sortCondition ref="B2:B65"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13965,12 +13979,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13983,7 +13997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -15699,22 +15713,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17442,12 +17456,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19175,12 +19189,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20908,17 +20922,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22644,12 +22658,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24377,12 +24391,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26110,12 +26124,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 2.xlsx
+++ b/game_template/model/data/floor builder Level 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="228">
   <si>
     <t>width</t>
   </si>
@@ -1718,6 +1718,9 @@
   <si>
     <t>Walls</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
@@ -1958,21 +1961,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -4892,12 +4881,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6625,12 +6614,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8358,12 +8347,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8376,7 +8365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -10091,12 +10080,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12246,12 +12235,12 @@
     <sortCondition ref="B2:B65"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13979,12 +13968,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13997,7 +13986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -15416,7 +15405,7 @@
         <v>11</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="T19" s="14" t="s">
         <v>42</v>
@@ -15428,11 +15417,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\    !!:`:    /:\ !</v>
+        <v>:\    !!:`:    /:\H!</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\    !!:`:    /:\ !',</v>
+        <v>':\    !!:`:    /:\H!',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -15713,22 +15702,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y13 A18:Y25 A14:C17 G14:Y17">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z13 A18:Z25 A14:C17 G14:Z17">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17456,12 +17445,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19189,12 +19178,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20922,17 +20911,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="17" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22658,12 +22647,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24391,12 +24380,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26124,12 +26113,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 2.xlsx
+++ b/game_template/model/data/floor builder Level 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1970,91 +1970,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -2154,12 +2070,68 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4974,12 +4946,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6707,12 +6679,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8440,12 +8412,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8458,7 +8430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -10293,22 +10265,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20 A22:Y25 U21:Y21 V1:Y20">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Z20">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10318,7 +10290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U20">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12468,12 +12440,12 @@
     <sortCondition ref="B2:B65"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14201,12 +14173,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16055,42 +16027,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T13 A18:T20 A14:C17 G14:T17 A22:Y25 U21:Y21 V1:Y20">
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T13 A18:T20 A14:C17 G14:T17 A22:Z25 U21:Z21 V1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:F17">
-    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U20">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U20">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16103,8 +16075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16912,7 +16884,7 @@
         <v>6</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="14" t="s">
         <v>6</v>
@@ -16933,11 +16905,11 @@
       <c r="Y11" s="9"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>w:```::  :     :   E</v>
+        <v>w:```::  :     Z   E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'w:```::  :     :   E',</v>
+        <v>'w:```::  :     Z   E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -16972,7 +16944,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>6</v>
@@ -17008,11 +16980,11 @@
       <c r="Y12" s="9"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">w:\  :   :     :    </v>
+        <v xml:space="preserve">w:\  :   :Z    :    </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>'w:\  :   :     :    ',</v>
+        <v>'w:\  :   :Z    :    ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -17338,7 +17310,7 @@
         <v>6</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>6</v>
@@ -17383,11 +17355,11 @@
       <c r="Y17" s="9"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>ww          :    !!w</v>
+        <v>ww     Z    :    !!w</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'ww          :    !!w',</v>
+        <v>'ww     Z    :    !!w',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -17509,7 +17481,7 @@
         <v>31</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="P19" s="14" t="s">
         <v>42</v>
@@ -17533,11 +17505,11 @@
       <c r="Y19" s="9"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>www!!! ::::www !!www</v>
+        <v>www!!! ::::wwwZ!!www</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'www!!! ::::www !!www',</v>
+        <v>'www!!! ::::wwwZ!!www',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -17818,12 +17790,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19551,12 +19523,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19570,7 +19542,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB20"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20078,7 +20050,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>6</v>
@@ -20099,11 +20071,11 @@
       <c r="Y7" s="9"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>www      /        w:</v>
+        <v>www      /     Z  w:</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'www      /        w:',</v>
+        <v>'www      /     Z  w:',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -20132,7 +20104,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>2</v>
@@ -20174,11 +20146,11 @@
       <c r="Y8" s="9"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>w!       :        ::</v>
+        <v>w!      Z:        ::</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>'w!       :        ::',</v>
+        <v>'w!      Z:        ::',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -20267,7 +20239,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>6</v>
@@ -20324,11 +20296,11 @@
       <c r="Y10" s="9"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>w     www!!ww   !!::</v>
+        <v>w  Z  www!!ww   !!::</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'w     www!!ww   !!::',</v>
+        <v>'w  Z  www!!ww   !!::',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -20594,7 +20566,7 @@
         <v>6</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>6</v>
@@ -20624,11 +20596,11 @@
       <c r="Y14" s="9"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>w   :              w</v>
+        <v>w   :       Z      w</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'w   :              w',</v>
+        <v>'w   :       Z      w',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -20651,7 +20623,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>6</v>
@@ -20699,11 +20671,11 @@
       <c r="Y15" s="9"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>w   :\        ww   w</v>
+        <v>w   :\Z       ww   w</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'w   :\        ww   w',</v>
+        <v>'w   :\Z       ww   w',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -20888,7 +20860,7 @@
         <v>6</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>31</v>
@@ -20924,11 +20896,11 @@
       <c r="Y18" s="9"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>ww    ww:  wwww:!  w</v>
+        <v>ww    ww: Zwwww:!  w</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'ww    ww:  wwww:!  w',</v>
+        <v>'ww    ww: Zwwww:!  w',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -21284,17 +21256,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:M1">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23020,12 +22992,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24753,12 +24725,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26486,12 +26458,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
